--- a/lịch thi của tôi =(.xlsx
+++ b/lịch thi của tôi =(.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LuongVy\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LuongVy\Desktop\myFirstProject\myRepository\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3FAA7314-511C-46F1-8B63-01C7903C33F6}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52752735-0403-4442-8C79-FC441332C351}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{AB7CAE00-8DC1-46FD-B7D6-2A287744D6BF}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="29">
   <si>
     <t>IT4263</t>
   </si>
@@ -115,6 +115,9 @@
   </si>
   <si>
     <t>D5-104</t>
+  </si>
+  <si>
+    <t>a</t>
   </si>
 </sst>
 </file>
@@ -541,10 +544,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55B9D0D8-9824-48AD-9416-4B05F621D2B1}">
-  <dimension ref="A1:L4"/>
+  <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -704,6 +707,11 @@
         <v>27</v>
       </c>
     </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>28</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/lịch thi của tôi =(.xlsx
+++ b/lịch thi của tôi =(.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LuongVy\Desktop\myFirstProject\myRepository\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52752735-0403-4442-8C79-FC441332C351}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94E3C4CE-659D-48FF-A253-EB1EDC6E437F}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{AB7CAE00-8DC1-46FD-B7D6-2A287744D6BF}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="28">
   <si>
     <t>IT4263</t>
   </si>
@@ -115,9 +115,6 @@
   </si>
   <si>
     <t>D5-104</t>
-  </si>
-  <si>
-    <t>a</t>
   </si>
 </sst>
 </file>
@@ -544,7 +541,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55B9D0D8-9824-48AD-9416-4B05F621D2B1}">
-  <dimension ref="A1:L5"/>
+  <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
@@ -707,11 +704,6 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>28</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
